--- a/KRAS_G13D_genetic_dependency.xlsx
+++ b/KRAS_G13D_genetic_dependency.xlsx
@@ -1298,7 +1298,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>T</t>
+    <t>mut</t>
   </si>
   <si>
     <t>gene</t>
